--- a/학습자료/단답형/고려_연도(왕)_전기.xlsx
+++ b/학습자료/단답형/고려_연도(왕)_전기.xlsx
@@ -434,6 +434,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>연도1</t>
@@ -471,7 +476,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
@@ -509,7 +514,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
@@ -547,7 +552,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
@@ -585,7 +590,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
@@ -623,7 +628,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
@@ -661,7 +666,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
@@ -699,7 +704,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="A8" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
@@ -737,7 +742,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="A9" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
@@ -775,7 +780,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="A10" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
@@ -813,7 +818,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="A11" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
@@ -851,7 +856,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
+      <c r="A12" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
@@ -889,7 +894,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
+      <c r="A13" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
@@ -927,7 +932,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
+      <c r="A14" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
@@ -965,7 +970,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
+      <c r="A15" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
@@ -1003,7 +1008,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
+      <c r="A16" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
@@ -1041,7 +1046,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
+      <c r="A17" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
@@ -1079,7 +1084,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
+      <c r="A18" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
@@ -1117,7 +1122,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
+      <c r="A19" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
@@ -1155,7 +1160,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
+      <c r="A20" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
@@ -1193,7 +1198,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
+      <c r="A21" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
@@ -1231,7 +1236,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n">
+      <c r="A22" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
@@ -1269,7 +1274,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n">
+      <c r="A23" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
@@ -1307,7 +1312,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n">
+      <c r="A24" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
@@ -1345,7 +1350,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n">
+      <c r="A25" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
@@ -1383,7 +1388,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n">
+      <c r="A26" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
@@ -1421,7 +1426,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n">
+      <c r="A27" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
@@ -1459,7 +1464,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n">
+      <c r="A28" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
@@ -1497,7 +1502,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n">
+      <c r="A29" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
@@ -1535,7 +1540,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n">
+      <c r="A30" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
@@ -1573,7 +1578,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n">
+      <c r="A31" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
@@ -1611,7 +1616,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="n">
+      <c r="A32" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
@@ -1649,7 +1654,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="n">
+      <c r="A33" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
@@ -1687,7 +1692,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="n">
+      <c r="A34" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
@@ -1725,7 +1730,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="n">
+      <c r="A35" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
@@ -1763,7 +1768,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n">
+      <c r="A36" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
@@ -1801,7 +1806,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="n">
+      <c r="A37" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
@@ -1839,7 +1844,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="n">
+      <c r="A38" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
@@ -1877,7 +1882,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="n">
+      <c r="A39" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
@@ -1915,7 +1920,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="n">
+      <c r="A40" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
@@ -1953,7 +1958,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="n">
+      <c r="A41" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
@@ -1991,7 +1996,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="n">
+      <c r="A42" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
@@ -2029,7 +2034,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="n">
+      <c r="A43" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
@@ -2067,7 +2072,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n">
+      <c r="A44" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
@@ -2105,7 +2110,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="n">
+      <c r="A45" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
@@ -2143,7 +2148,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="n">
+      <c r="A46" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
@@ -2181,7 +2186,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="n">
+      <c r="A47" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
@@ -2219,7 +2224,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="n">
+      <c r="A48" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
@@ -2257,7 +2262,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="n">
+      <c r="A49" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
@@ -2295,7 +2300,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="n">
+      <c r="A50" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
@@ -2333,7 +2338,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="n">
+      <c r="A51" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
@@ -2371,7 +2376,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="n">
+      <c r="A52" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
@@ -2409,7 +2414,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="n">
+      <c r="A53" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
@@ -2447,7 +2452,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="n">
+      <c r="A54" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
@@ -2485,7 +2490,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="n">
+      <c r="A55" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
@@ -2523,7 +2528,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="n">
+      <c r="A56" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
@@ -2561,7 +2566,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="n">
+      <c r="A57" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
@@ -2599,7 +2604,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="n">
+      <c r="A58" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
@@ -2637,7 +2642,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="n">
+      <c r="A59" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
@@ -2675,7 +2680,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="n">
+      <c r="A60" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
@@ -2713,7 +2718,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="n">
+      <c r="A61" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
@@ -2751,7 +2756,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="n">
+      <c r="A62" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
@@ -2789,7 +2794,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="n">
+      <c r="A63" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
@@ -2827,7 +2832,7 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="n">
+      <c r="A64" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
@@ -2865,7 +2870,7 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="n">
+      <c r="A65" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
@@ -2903,7 +2908,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="n">
+      <c r="A66" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
@@ -2941,7 +2946,7 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="n">
+      <c r="A67" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
@@ -2979,7 +2984,7 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="n">
+      <c r="A68" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
@@ -3017,7 +3022,7 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="n">
+      <c r="A69" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
@@ -3055,7 +3060,7 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="n">
+      <c r="A70" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
@@ -3093,7 +3098,7 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="n">
+      <c r="A71" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
@@ -3131,7 +3136,7 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="n">
+      <c r="A72" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
@@ -3169,7 +3174,7 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="n">
+      <c r="A73" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
@@ -3207,7 +3212,7 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="n">
+      <c r="A74" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
@@ -3245,7 +3250,7 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="n">
+      <c r="A75" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
@@ -3283,7 +3288,7 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="n">
+      <c r="A76" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
@@ -3321,7 +3326,7 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="n">
+      <c r="A77" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
@@ -3359,7 +3364,7 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="n">
+      <c r="A78" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
@@ -3397,7 +3402,7 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="n">
+      <c r="A79" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
@@ -3435,7 +3440,7 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="n">
+      <c r="A80" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
@@ -3473,7 +3478,7 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="n">
+      <c r="A81" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
@@ -3511,7 +3516,7 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="n">
+      <c r="A82" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
@@ -3549,7 +3554,7 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="1" t="n">
+      <c r="A83" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
@@ -3587,7 +3592,7 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="n">
+      <c r="A84" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
@@ -3625,7 +3630,7 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="1" t="n">
+      <c r="A85" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
@@ -3663,7 +3668,7 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="1" t="n">
+      <c r="A86" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
@@ -3701,7 +3706,7 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="1" t="n">
+      <c r="A87" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
